--- a/Documents/QA documentation.xlsx
+++ b/Documents/QA documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\The-Maze-Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F0EB4C-BFDF-458F-954B-FB5E39605938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C632FE86-9F0E-4677-A83C-A3F03228433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test suit for check functions" sheetId="5" r:id="rId1"/>
@@ -102,20 +102,70 @@
     <t>Determines where to coordinate the figure</t>
   </si>
   <si>
+    <t>Prints the maze</t>
+  </si>
+  <si>
+    <t>It changes the level and gives you a choice whether to continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changeLevels  </t>
+  </si>
+  <si>
+    <t>levelOne</t>
+  </si>
+  <si>
+    <t>The function moves the figure and checks the walls of the maze</t>
+  </si>
+  <si>
+    <t>Makes the inscription WELCOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adds color when choosing whether to start the game </t>
+  </si>
+  <si>
+    <t>Displays the options menu</t>
+  </si>
+  <si>
+    <t>void color</t>
+  </si>
+  <si>
+    <t>void menu</t>
+  </si>
+  <si>
+    <t>Prints menu</t>
+  </si>
+  <si>
+    <t>Positions the cursor</t>
+  </si>
+  <si>
+    <t>Sets the attributes whith the defined colors</t>
+  </si>
+  <si>
+    <t>void frontEnd</t>
+  </si>
+  <si>
+    <t>Prints Welcome</t>
+  </si>
+  <si>
+    <t>levelTwo</t>
+  </si>
+  <si>
+    <t>levelThree</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="8"/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>print</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -125,65 +175,13 @@
     <r>
       <rPr>
         <b/>
-        <sz val="8"/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>maze</t>
     </r>
-  </si>
-  <si>
-    <t>Prints the maze</t>
-  </si>
-  <si>
-    <t>It changes the level and gives you a choice whether to continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changeLevels  </t>
-  </si>
-  <si>
-    <t>levelOne</t>
-  </si>
-  <si>
-    <t>The function moves the figure and checks the walls of the maze</t>
-  </si>
-  <si>
-    <t>Makes the inscription WELCOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds color when choosing whether to start the game </t>
-  </si>
-  <si>
-    <t>Displays the options menu</t>
-  </si>
-  <si>
-    <t>void color</t>
-  </si>
-  <si>
-    <t>void menu</t>
-  </si>
-  <si>
-    <t>Prints menu</t>
-  </si>
-  <si>
-    <t>Positions the cursor</t>
-  </si>
-  <si>
-    <t>Sets the attributes whith the defined colors</t>
-  </si>
-  <si>
-    <t>void frontEnd</t>
-  </si>
-  <si>
-    <t>Prints Welcome</t>
-  </si>
-  <si>
-    <t>levelTwo</t>
-  </si>
-  <si>
-    <t>levelThree</t>
   </si>
 </sst>
 </file>
@@ -193,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -215,13 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -250,14 +241,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -268,14 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -283,11 +258,61 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -546,9 +571,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -557,172 +582,161 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Бележка" xfId="1" builtinId="10"/>
-    <cellStyle name="Добър" xfId="2" builtinId="26"/>
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1008,66 +1022,66 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="0.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="0.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="57" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1080,28 +1094,28 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1114,10 +1128,10 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1127,563 +1141,629 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="52"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="47" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="34" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="E24" s="21"/>
+      <c r="F24" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="E33" s="21"/>
+      <c r="F33" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B35" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="5" t="s">
+      <c r="E35" s="21"/>
+      <c r="F35" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="55" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B35:C35"/>
@@ -1692,73 +1772,10 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Documents/QA documentation.xlsx
+++ b/Documents/QA documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY\Downloads\The-Maze-Runner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD61F2B-9F8E-425F-8C9A-6538DAE88A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE1913E-4940-4CD7-9987-BB1071AA189A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test suit for check functions" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -145,12 +145,6 @@
     <t>Prints the menu</t>
   </si>
   <si>
-    <t>Sets the attributes with the defined colors</t>
-  </si>
-  <si>
-    <t>Positions the cursor after the figure</t>
-  </si>
-  <si>
     <t>Prints the maze for level two</t>
   </si>
   <si>
@@ -179,6 +173,21 @@
   </si>
   <si>
     <t>It gives you a choice whether to start the game again</t>
+  </si>
+  <si>
+    <t>Positions the cursor</t>
+  </si>
+  <si>
+    <t>Sets the attributes whith the defined colors</t>
+  </si>
+  <si>
+    <t>The function moves the object</t>
+  </si>
+  <si>
+    <t>Ask if you to want to stop the program</t>
+  </si>
+  <si>
+    <t>Ask you if you want to go to level two</t>
   </si>
 </sst>
 </file>
@@ -710,6 +719,81 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,17 +821,68 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -761,134 +896,8 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1180,66 +1189,66 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="0.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="0.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="35"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1252,28 +1261,28 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="36" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1286,10 +1295,10 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1299,56 +1308,56 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="62"/>
+      <c r="F7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="32" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -1356,22 +1365,22 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="46"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="26"/>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1379,170 +1388,170 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="63"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="47"/>
       <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="45" t="s">
+    <row r="12" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="64" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="69" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="61"/>
+    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="22"/>
+      <c r="B16" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="31"/>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="22"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="31"/>
       <c r="F17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="22"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="31"/>
       <c r="F18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="45" t="s">
+    <row r="19" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="46"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="7" t="s">
@@ -1550,298 +1559,298 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="42"/>
+      <c r="F21" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="22"/>
+      <c r="B23" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="31"/>
       <c r="F23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="22"/>
+    <row r="24" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="31"/>
       <c r="F24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="22"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="31"/>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="45" t="s">
+    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="45" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="19" t="s">
+      <c r="E28" s="42"/>
+      <c r="F28" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="22"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="31"/>
       <c r="F30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="41" t="s">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="22"/>
+    <row r="32" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="31"/>
       <c r="F32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="41" t="s">
+    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="45" t="s">
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="45" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="46"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="43" t="s">
+      <c r="G34" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="45" t="s">
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="45" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="46"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -1850,6 +1859,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D35:E35"/>
@@ -1861,67 +1926,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
